--- a/excel/TestExcel.xlsx
+++ b/excel/TestExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\Excel2Flatbuffers\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5DDAB-1D12-4715-86B9-BE44D2793323}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EC0EBE-4A54-4731-B38D-9ACF3E5C4C8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TShowMusicsConfig" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>23:59:59</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,14 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID:int32#音乐ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoteName:string#对应谱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BGMName:string#音乐名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +142,18 @@
   </si>
   <si>
     <t>ClothesCondition:string#要求衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalTime2:float#总时长2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iD:int32#音乐ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noteName:string#对应谱子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,9 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -574,18 +576,20 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -607,6 +611,9 @@
       <c r="D2" s="2">
         <v>78</v>
       </c>
+      <c r="E2">
+        <v>78.125</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -627,6 +634,9 @@
       </c>
       <c r="D3" s="2">
         <v>81</v>
+      </c>
+      <c r="E3">
+        <v>99.364999999999995</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -646,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A12D17-82AA-4B49-86FC-D19EDFFC4330}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,22 +671,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -723,6 +733,12 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -798,6 +814,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/TestExcel.xlsx
+++ b/excel/TestExcel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\Excel2Flatbuffers\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EC0EBE-4A54-4731-B38D-9ACF3E5C4C8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439247DC-40F8-4C7C-831D-2BDA6A43996E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TShowMusicsConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="TShowConditionConfig" sheetId="4" r:id="rId2"/>
+    <sheet name="DanceMusicConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="PlayConditionConfig" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -556,7 +556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -657,7 +659,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
